--- a/Regression/LUAD/LUAD Regression Results Normal.xlsx
+++ b/Regression/LUAD/LUAD Regression Results Normal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanika Saini\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1BD48E-A6B7-4D7C-A424-664E0F22465E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712D5444-A2C0-42F6-9BEE-E8396E8F6007}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6930" xr2:uid="{61C3C679-1738-42BD-BDCF-9126BF2E57A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61C3C679-1738-42BD-BDCF-9126BF2E57A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>GENES ONLY</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">ALL </t>
-  </si>
-  <si>
-    <t>COX REGRESSION</t>
   </si>
   <si>
     <t>SVR</t>
@@ -578,11 +575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D269103-C0CE-46D1-AA93-09DD94E4D281}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,7 +594,7 @@
     <col min="9" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
@@ -617,13 +614,10 @@
         <v>11</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
@@ -649,7 +643,7 @@
         <v>0.59703882580965695</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -678,7 +672,7 @@
         <v>0.72707739583410103</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
@@ -704,7 +698,7 @@
         <v>0.85268833452446202</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
@@ -730,7 +724,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -756,7 +750,7 @@
         <v>-4.3700000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -782,7 +776,7 @@
         <v>0.42359999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
@@ -811,7 +805,7 @@
         <v>0.64473206120730098</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -837,7 +831,7 @@
         <v>0.85946944470541997</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
@@ -863,7 +857,7 @@
         <v>0.92707574917339997</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -889,7 +883,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
@@ -915,7 +909,7 @@
         <v>-0.20549999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -941,7 +935,7 @@
         <v>0.41270000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
@@ -969,9 +963,8 @@
       <c r="I18" s="3">
         <v>0.50178407925121804</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
@@ -997,7 +990,7 @@
         <v>0.50808953627349596</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
         <v>14</v>
       </c>
@@ -1023,7 +1016,7 @@
         <v>0.71280399569130903</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
@@ -1049,7 +1042,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
         <v>17</v>
       </c>
@@ -1075,7 +1068,7 @@
         <v>0.2873</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
@@ -1101,7 +1094,7 @@
         <v>0.53769999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1123,7 @@
         <v>0.59182527039446298</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1149,7 @@
         <v>0.71054732505464802</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
         <v>14</v>
       </c>
@@ -1182,7 +1175,7 @@
         <v>0.84293969241853095</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
         <v>15</v>
       </c>
@@ -1208,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
@@ -1234,7 +1227,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
@@ -1260,10 +1253,10 @@
         <v>0.43330000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
